--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_闪电组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_闪电组.xlsx
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1004,13 +1004,13 @@
         <v>27</v>
       </c>
       <c r="F2" s="13">
-        <v>42447</v>
+        <v>42454</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="13">
-        <v>42447</v>
+        <v>42454</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
@@ -1046,13 +1046,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="13">
-        <v>42447</v>
+        <v>42454</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="13">
-        <v>42447</v>
+        <v>42454</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">

--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_闪电组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_闪电组.xlsx
@@ -15,12 +15,12 @@
     <sheet name="版本3.1.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -152,6 +152,26 @@
   </si>
   <si>
     <t>苏玉军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐燕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.03.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -491,74 +511,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -578,7 +530,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -901,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1019,10 +971,18 @@
       <c r="K2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="32"/>
@@ -1061,10 +1021,18 @@
       <c r="K3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="32"/>

--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_闪电组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_闪电组.xlsx
@@ -854,7 +854,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
